--- a/Labo1/Memory.xlsx
+++ b/Labo1/Memory.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Desktop\3eme annee\Microprocesseur\Labo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jige\Administration\COURS\Microprocesseur_3\Microprocessor\Labo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>RAM</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>int a 0x7ffda77de91c</t>
+  </si>
+  <si>
+    <t>octets[10000] 0x55fae46ee010</t>
   </si>
 </sst>
 </file>
@@ -310,66 +313,33 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,6 +356,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,169 +811,171 @@
   <dimension ref="E3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="25"/>
     </row>
     <row r="4" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="13"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E7" s="20"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="5"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="15"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="15"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="5"/>
+      <c r="F13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J6:K8"/>
+    <mergeCell ref="J9:K11"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="J12:K15"/>
     <mergeCell ref="F13:I14"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J6:K8"/>
-    <mergeCell ref="J9:K11"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
